--- a/xlsx/皮尤研究中心_intext.xlsx
+++ b/xlsx/皮尤研究中心_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>皮尤研究中心</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_皮尤研究中心</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_皮尤研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
@@ -41,9 +41,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
   </si>
   <si>
@@ -53,7 +50,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99</t>
   </si>
   <si>
-    <t>資料</t>
+    <t>资料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%B9%E7%9B%AE</t>
@@ -89,13 +86,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E6%A8%A3</t>
   </si>
   <si>
-    <t>抽樣</t>
+    <t>抽样</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%8F%E5%8D%B7%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>問卷調查</t>
+    <t>问卷调查</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Interview_(research)</t>
@@ -107,7 +104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%BC%8F%E8%A8%AA%E8%AB%87</t>
   </si>
   <si>
-    <t>結構式訪談</t>
+    <t>结构式访谈</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semi-structured_interview</t>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>資料分析</t>
+    <t>资料分析</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Categorical_variable</t>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%B0%BA%E5%BA%A6</t>
   </si>
   <si>
-    <t>測量尺度</t>
+    <t>测量尺度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%8F%E8%BF%B0%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E8%AE%8A%E9%87%8F%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>多變量分析</t>
+    <t>多变量分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E8%AB%96%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>推論統計學</t>
+    <t>推论统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E6%A8%A1%E5%9E%8B</t>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>圖模式</t>
+    <t>图模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8A%E6%9D%BE%E5%9B%9E%E5%BD%92</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E8%A6%96%E7%8E%87</t>
   </si>
   <si>
-    <t>收視率</t>
+    <t>收视率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -221,19 +218,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>市場調查</t>
+    <t>市场调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BF%E8%AB%96%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>輿論調查</t>
+    <t>舆论调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會統計學</t>
+    <t>社会统计学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Afrobarometer</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A4%BE%E6%9C%83%E8%AA%BF%E6%9F%A5%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>國際社會調查計畫</t>
+    <t>国际社会调查计画</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Latinobar%C3%B3metro</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E6%B4%9B%E6%99%AE</t>
   </si>
   <si>
-    <t>蓋洛普</t>
+    <t>盖洛普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%9F%E8%AE%A1%E5%AD%A6%E4%BC%9A</t>
@@ -329,13 +326,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%85%AC%E5%85%B1%E8%BC%BF%E8%AB%96%E7%A0%94%E7%A9%B6%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>世界公共輿論研究學會</t>
+    <t>世界公共舆论研究学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -817,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
@@ -843,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -872,10 +869,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -901,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>8</v>
@@ -930,10 +927,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -959,10 +956,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -988,10 +985,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1017,10 +1014,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1046,10 +1043,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1075,10 +1072,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1104,10 +1101,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1133,10 +1130,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1162,10 +1159,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1191,10 +1188,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1220,10 +1217,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1249,10 +1246,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1278,10 +1275,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1307,10 +1304,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1336,10 +1333,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1365,10 +1362,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1394,10 +1391,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1423,10 +1420,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1452,10 +1449,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1481,10 +1478,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1510,10 +1507,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1539,10 +1536,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1568,10 +1565,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1597,10 +1594,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1626,10 +1623,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1655,10 +1652,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1684,10 +1681,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1713,10 +1710,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1742,10 +1739,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1771,10 +1768,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1800,10 +1797,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1829,10 +1826,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1858,10 +1855,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1887,10 +1884,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1916,10 +1913,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1945,10 +1942,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1974,10 +1971,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2003,10 +2000,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2032,10 +2029,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2061,10 +2058,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2090,10 +2087,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2119,10 +2116,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2148,10 +2145,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2177,10 +2174,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2206,10 +2203,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2235,10 +2232,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -2264,10 +2261,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2293,10 +2290,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2322,10 +2319,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2351,10 +2348,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
